--- a/Otorgamiento/Mapeos_REC_Otorgamiento_V1.xlsx
+++ b/Otorgamiento/Mapeos_REC_Otorgamiento_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="615" windowWidth="9225" windowHeight="4410" tabRatio="732" activeTab="2"/>
+    <workbookView xWindow="285" yWindow="615" windowWidth="9225" windowHeight="4410" tabRatio="732" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="DB_GARANTIA_EXIGIDA" sheetId="8" r:id="rId1"/>
@@ -1383,7 +1383,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="311">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -4196,7 +4196,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4206,8 +4206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S70"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36:S36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4415,7 +4415,9 @@
       </c>
       <c r="F9" s="130"/>
       <c r="G9" s="131"/>
-      <c r="H9" s="137"/>
+      <c r="H9" s="137" t="s">
+        <v>48</v>
+      </c>
       <c r="I9" s="39"/>
       <c r="J9" s="55">
         <v>16</v>
@@ -5993,7 +5995,7 @@
   <dimension ref="B1:R60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6187,7 +6189,9 @@
       </c>
       <c r="E9" s="83"/>
       <c r="F9" s="56"/>
-      <c r="G9" s="64"/>
+      <c r="G9" s="64" t="s">
+        <v>48</v>
+      </c>
       <c r="H9" s="39"/>
       <c r="I9" s="55">
         <v>13</v>
@@ -7476,8 +7480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7671,7 +7675,9 @@
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="56"/>
-      <c r="H9" s="57"/>
+      <c r="H9" s="57" t="s">
+        <v>48</v>
+      </c>
       <c r="I9" s="41"/>
       <c r="J9" s="36">
         <v>20</v>
@@ -9100,8 +9106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R56"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9338,7 +9344,9 @@
       </c>
       <c r="E10" s="43"/>
       <c r="F10" s="59"/>
-      <c r="G10" s="65"/>
+      <c r="G10" s="65" t="s">
+        <v>48</v>
+      </c>
       <c r="H10" s="39"/>
       <c r="I10" s="37">
         <v>17</v>
@@ -10516,8 +10524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R56"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10754,7 +10762,9 @@
       </c>
       <c r="E10" s="43"/>
       <c r="F10" s="59"/>
-      <c r="G10" s="65"/>
+      <c r="G10" s="65" t="s">
+        <v>48</v>
+      </c>
       <c r="H10" s="39"/>
       <c r="I10" s="37">
         <v>15</v>
@@ -11906,8 +11916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R49"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12144,7 +12154,9 @@
       </c>
       <c r="E10" s="43"/>
       <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
+      <c r="G10" s="60" t="s">
+        <v>48</v>
+      </c>
       <c r="H10" s="39"/>
       <c r="I10" s="32">
         <v>19</v>
@@ -13195,8 +13207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S68"/>
   <sheetViews>
-    <sheetView topLeftCell="M67" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13448,7 +13460,9 @@
       </c>
       <c r="F10" s="35"/>
       <c r="G10" s="59"/>
-      <c r="H10" s="65"/>
+      <c r="H10" s="65" t="s">
+        <v>48</v>
+      </c>
       <c r="I10" s="39"/>
       <c r="J10" s="37">
         <v>21</v>
@@ -14975,8 +14989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S68"/>
   <sheetViews>
-    <sheetView topLeftCell="L58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15182,7 +15196,9 @@
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="56"/>
-      <c r="H9" s="64"/>
+      <c r="H9" s="64" t="s">
+        <v>48</v>
+      </c>
       <c r="I9" s="106"/>
       <c r="J9" s="36">
         <v>27</v>

--- a/Otorgamiento/Mapeos_REC_Otorgamiento_V1.xlsx
+++ b/Otorgamiento/Mapeos_REC_Otorgamiento_V1.xlsx
@@ -1383,7 +1383,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="311">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -4196,7 +4196,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14989,15 +14989,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="3" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -16183,7 +16183,9 @@
       <c r="D34" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="E34" s="52"/>
+      <c r="E34" s="52" t="s">
+        <v>52</v>
+      </c>
       <c r="F34" s="52"/>
       <c r="G34" s="62"/>
       <c r="H34" s="63"/>
